--- a/Templates/fecundity/0_template_fecundity_full.xlsx
+++ b/Templates/fecundity/0_template_fecundity_full.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\fecundity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\fecundity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB3A2D6-4958-47B4-9C77-0EC908681A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3872A0-6B76-43E4-BB8D-2ADEB1E9F60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="240">
   <si>
     <t>Table_name</t>
   </si>
@@ -747,6 +747,9 @@
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
   </si>
+  <si>
+    <t>date_of_collection_final</t>
+  </si>
 </sst>
 </file>
 
@@ -1162,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C0933D-E5FC-4A10-B3D0-28C675A6D7ED}">
   <dimension ref="A1:CU1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1323,7 @@
         <v>49</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>52</v>
@@ -1572,9 +1575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z989"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2278,7 @@
         <v>46</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>51</v>

--- a/Templates/fecundity/0_template_fecundity_full.xlsx
+++ b/Templates/fecundity/0_template_fecundity_full.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\fecundity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B179D16-3E5A-48FA-B27A-1344D6CB26B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083985F8-9BF9-4554-A35C-F859F9F44923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="251">
   <si>
     <t>Table_name</t>
   </si>
@@ -780,6 +780,9 @@
   <si>
     <t>reproductive event (batch), reproductive se</t>
   </si>
+  <si>
+    <t>date_of_collection_final</t>
+  </si>
 </sst>
 </file>
 
@@ -1301,7 +1304,7 @@
   <dimension ref="A1:DC1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1440,7 @@
         <v>91</v>
       </c>
       <c r="AR1" s="42" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="AS1" s="42" t="s">
         <v>94</v>
@@ -3242,7 +3245,7 @@
         <v>86</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>91</v>
+        <v>250</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>93</v>
